--- a/mosip_master/xlsx/title.xlsx
+++ b/mosip_master/xlsx/title.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -89,6 +89,27 @@
   </si>
   <si>
     <t xml:space="preserve">Titre de femme célibataire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقب ذكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السيدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقب أنثى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يغيب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقب انثى غير متزوجة</t>
   </si>
 </sst>
 </file>
@@ -179,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +219,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,15 +242,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E7"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,6 +371,57 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
